--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spp1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spp1-Cd44.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H2">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I2">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J2">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N2">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O2">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P2">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q2">
-        <v>84219.43979510624</v>
+        <v>0.4023826512933334</v>
       </c>
       <c r="R2">
-        <v>757974.9581559562</v>
+        <v>3.62144386164</v>
       </c>
       <c r="S2">
-        <v>0.8564037967674971</v>
+        <v>0.0008998325288769563</v>
       </c>
       <c r="T2">
-        <v>0.8564037967674971</v>
+        <v>0.0008998325288769563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H3">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I3">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J3">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P3">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q3">
-        <v>6883.156798414332</v>
+        <v>1.202859249712778</v>
       </c>
       <c r="R3">
-        <v>61948.411185729</v>
+        <v>10.825733247415</v>
       </c>
       <c r="S3">
-        <v>0.06999288561226659</v>
+        <v>0.002689906925840716</v>
       </c>
       <c r="T3">
-        <v>0.06999288561226659</v>
+        <v>0.002689906925840716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>282.7879796666667</v>
+        <v>0.04941833333333333</v>
       </c>
       <c r="H4">
-        <v>848.3639390000001</v>
+        <v>0.148255</v>
       </c>
       <c r="I4">
-        <v>0.9674521741401267</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="J4">
-        <v>0.9674521741401266</v>
+        <v>0.005167549122999764</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P4">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q4">
-        <v>4037.430158088242</v>
+        <v>0.70555710889</v>
       </c>
       <c r="R4">
-        <v>36336.87142279418</v>
+        <v>6.35001398001</v>
       </c>
       <c r="S4">
-        <v>0.04105549176036294</v>
+        <v>0.001577809668282091</v>
       </c>
       <c r="T4">
-        <v>0.04105549176036294</v>
+        <v>0.001577809668282091</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>23.14409</v>
       </c>
       <c r="I5">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J5">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N5">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O5">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P5">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q5">
-        <v>2297.577967145914</v>
+        <v>62.81596098594668</v>
       </c>
       <c r="R5">
-        <v>20678.20170431323</v>
+        <v>565.3436488735201</v>
       </c>
       <c r="S5">
-        <v>0.02336342415979172</v>
+        <v>0.140472867918491</v>
       </c>
       <c r="T5">
-        <v>0.02336342415979171</v>
+        <v>0.140472867918491</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>23.14409</v>
       </c>
       <c r="I6">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J6">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P6">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q6">
         <v>187.7783732938856</v>
@@ -818,10 +818,10 @@
         <v>1690.00535964497</v>
       </c>
       <c r="S6">
-        <v>0.001909465465822921</v>
+        <v>0.419921405573376</v>
       </c>
       <c r="T6">
-        <v>0.001909465465822921</v>
+        <v>0.419921405573376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>23.14409</v>
       </c>
       <c r="I7">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="J7">
-        <v>0.02639291836872237</v>
+        <v>0.806706161560336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P7">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q7">
         <v>110.14452954902</v>
@@ -880,10 +880,10 @@
         <v>991.3007659411801</v>
       </c>
       <c r="S7">
-        <v>0.001120028743107736</v>
+        <v>0.246311888068469</v>
       </c>
       <c r="T7">
-        <v>0.001120028743107736</v>
+        <v>0.246311888068469</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>5.397271</v>
       </c>
       <c r="I8">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J8">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>297.8183156666666</v>
+        <v>8.142376000000001</v>
       </c>
       <c r="N8">
-        <v>893.4549469999999</v>
+        <v>24.427128</v>
       </c>
       <c r="O8">
-        <v>0.8852156413092672</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="P8">
-        <v>0.8852156413092673</v>
+        <v>0.1741313933276368</v>
       </c>
       <c r="Q8">
-        <v>535.8020528055151</v>
+        <v>14.64886995196533</v>
       </c>
       <c r="R8">
-        <v>4822.218475249637</v>
+        <v>131.839829567688</v>
       </c>
       <c r="S8">
-        <v>0.00544842038197843</v>
+        <v>0.03275869288026885</v>
       </c>
       <c r="T8">
-        <v>0.00544842038197843</v>
+        <v>0.03275869288026886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>5.397271</v>
       </c>
       <c r="I9">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J9">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.07234764413494278</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="P9">
-        <v>0.0723476441349428</v>
+        <v>0.5205382400466131</v>
       </c>
       <c r="Q9">
         <v>43.79047820010478</v>
@@ -1004,10 +1004,10 @@
         <v>394.114303800943</v>
       </c>
       <c r="S9">
-        <v>0.0004452930568532848</v>
+        <v>0.09792692754739635</v>
       </c>
       <c r="T9">
-        <v>0.0004452930568532848</v>
+        <v>0.09792692754739636</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>5.397271</v>
       </c>
       <c r="I10">
-        <v>0.006154907491150983</v>
+        <v>0.1881262893166642</v>
       </c>
       <c r="J10">
-        <v>0.006154907491150982</v>
+        <v>0.1881262893166643</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="P10">
-        <v>0.04243671455578994</v>
+        <v>0.3053303666257501</v>
       </c>
       <c r="Q10">
         <v>25.686033676138</v>
@@ -1066,10 +1066,10 @@
         <v>231.174303085242</v>
       </c>
       <c r="S10">
-        <v>0.0002611940523192674</v>
+        <v>0.05744066888899903</v>
       </c>
       <c r="T10">
-        <v>0.0002611940523192674</v>
+        <v>0.05744066888899903</v>
       </c>
     </row>
   </sheetData>
